--- a/Assets/Documents/Parameter.xlsx
+++ b/Assets/Documents/Parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakob\Documents\BuisnessSim\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80210513-7324-4815-BBEF-527BC632CC8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9924094-72D4-43B5-86AF-1BA14A44A6BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{149525E0-C9DF-45B2-9398-21ACCC88C2F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="48">
   <si>
     <t>Parameter</t>
   </si>
@@ -88,6 +88,93 @@
   </si>
   <si>
     <t>random Wetter</t>
+  </si>
+  <si>
+    <t>3. Durchgang mit Wettermanipulation 250 Jahre</t>
+  </si>
+  <si>
+    <t>4. Durchgang mit Wettermanipulation 250 Jahre</t>
+  </si>
+  <si>
+    <t>5. Durchgang mit Wettermanipulation 250 Jahre</t>
+  </si>
+  <si>
+    <t>6. Durchgang mit Wettermanipulation 250 Jahre</t>
+  </si>
+  <si>
+    <t>1. Durchgang ohne Wettermanipulation 100 Jahre</t>
+  </si>
+  <si>
+    <t>Harvest nach 100 Jahren</t>
+  </si>
+  <si>
+    <t>1. Durchgang ohne Wettermanipulation 50 Jahre</t>
+  </si>
+  <si>
+    <t>Harvest nach 50 Jahren</t>
+  </si>
+  <si>
+    <t>1+2 = sun</t>
+  </si>
+  <si>
+    <t>3+4 = cloudy</t>
+  </si>
+  <si>
+    <t>5+6 = rain</t>
+  </si>
+  <si>
+    <t>2. Durchgang ohne Wettermanipulation 100 Jahre</t>
+  </si>
+  <si>
+    <t>3. Durchgang mit Wettermanipulation 100 Jahre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anmerkung: spidergraph zeigt nur max 60 tage an -&gt; </t>
+  </si>
+  <si>
+    <t>hier sind es aber pro graph 250 tage (da ja kein anderes wetter getriggert wird)</t>
+  </si>
+  <si>
+    <t>1+2= deer</t>
+  </si>
+  <si>
+    <t>3+4= storm</t>
+  </si>
+  <si>
+    <t>5+6= rain</t>
+  </si>
+  <si>
+    <t>1+2= sun</t>
+  </si>
+  <si>
+    <t>2+4 = rain</t>
+  </si>
+  <si>
+    <t>5+6= deer</t>
+  </si>
+  <si>
+    <t>1+2 startet sonnig</t>
+  </si>
+  <si>
+    <t>3+4 startet mit deer</t>
+  </si>
+  <si>
+    <t>nach 50 jahren cloudy</t>
+  </si>
+  <si>
+    <t>nach 50 jahren rain</t>
+  </si>
+  <si>
+    <t>nach 50 jahren storm</t>
+  </si>
+  <si>
+    <t>nach 50 jahren deer</t>
+  </si>
+  <si>
+    <t>nach 50 jahren sun</t>
+  </si>
+  <si>
+    <t>5+6 startet rain</t>
   </si>
 </sst>
 </file>
@@ -142,9 +229,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -167,23 +255,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>39279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>255311</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
+        <xdr:cNvPr id="9" name="Grafik 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FC753D-61C5-4350-8DC1-5AB28AB03DC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF87027-88F3-48A2-BBB5-1CC31495FBA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -205,8 +293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3829050" y="781051"/>
-          <a:ext cx="2768600" cy="2076450"/>
+          <a:off x="3584151" y="785568"/>
+          <a:ext cx="4330438" cy="2407094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -217,23 +305,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255309</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>689644</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>94073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4">
+        <xdr:cNvPr id="11" name="Grafik 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1838DC62-D53F-4E92-816D-11A20A847520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D215F8A-57C9-4BDB-822C-9F42FA5AFB7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -242,7 +330,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -255,8 +343,408 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858001" y="762001"/>
-          <a:ext cx="2438400" cy="2438400"/>
+          <a:off x="5616804" y="1482758"/>
+          <a:ext cx="5029902" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736469</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>610335</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>39279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Grafik 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E265676-AB3E-421B-8CAF-7F013CB288BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800180" y="3711805"/>
+          <a:ext cx="4469433" cy="2484355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58917</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493252</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Grafik 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBFAB36-46A4-4081-B660-CA7ED0853A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5420412" y="4399174"/>
+          <a:ext cx="5029902" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667733</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>186571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441882</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>29569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Grafik 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB6888C-3E28-45DA-B8A1-13D5590683C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3731444" y="6716597"/>
+          <a:ext cx="4369716" cy="2641580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117835</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552170</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>143169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Grafik 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89908893-E549-476D-868C-E15840CDD34C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5479330" y="7502164"/>
+          <a:ext cx="5029902" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>697193</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>39278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>451702</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>31850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Grafik 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3953A3D3-B0B8-4812-BBB9-749A26CCDA1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3760904" y="9741031"/>
+          <a:ext cx="4350076" cy="2418010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>216030</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>39278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>650365</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>143170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Grafik 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA804B8F-F2D7-4C32-B115-B345BB6486AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5577525" y="10487319"/>
+          <a:ext cx="5029902" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>540078</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>78557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>343686</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>125934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Grafik 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906C84B9-F33D-4F4D-9652-A82DE2D2CD3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3603789" y="12765464"/>
+          <a:ext cx="4399175" cy="2659388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58917</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>127655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493252</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>44975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Grafik 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B635FA-AE36-49F7-BB40-E3784FE12BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5420412" y="13747423"/>
+          <a:ext cx="5029902" cy="1409897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,30 +1053,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8093DD18-323A-411F-97DD-5E8AE1A8067D}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -601,13 +1107,37 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>79.778400000000005</v>
+        <v>12.43797</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -615,8 +1145,26 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -624,7 +1172,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>52298</v>
+        <v>33838.89</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -632,13 +1180,37 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>167903</v>
+        <v>32.667479999999998</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -646,8 +1218,26 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -655,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>52298</v>
+        <v>33838.89</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -663,13 +1253,37 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2.1134300000000001</v>
+        <v>3583.596</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -677,8 +1291,26 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -686,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>52298</v>
+        <v>33838.89</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -694,18 +1326,54 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -718,80 +1386,1400 @@
       <c r="J20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>8.4776889999999994E-2</v>
+      </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C22">
+        <v>22570.52</v>
+      </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
+      <c r="C23">
+        <v>4021.7190000000001</v>
+      </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C24">
+        <v>22570.52</v>
+      </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
+      <c r="C25">
+        <v>169.55199999999999</v>
+      </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C26">
+        <v>22570.52</v>
+      </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
+      </c>
+      <c r="O26" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" t="s">
+        <v>11</v>
+      </c>
+      <c r="X36" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9.1815000000000002E+30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>13</v>
+      </c>
+      <c r="S37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>36924.639999999999</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1494369000000000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="O39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>36924.639999999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R40" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>4.931019E-4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>36924.639999999999</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" t="s">
+        <v>11</v>
+      </c>
+      <c r="X52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.401298E-45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1</v>
+      </c>
+      <c r="R53" t="s">
+        <v>13</v>
+      </c>
+      <c r="S53" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>47161.24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R54" t="s">
+        <v>13</v>
+      </c>
+      <c r="S54" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2.551386E-26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O55" t="s">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S55" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>47161.24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56" t="s">
+        <v>4</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R56" t="s">
+        <v>13</v>
+      </c>
+      <c r="S56" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>4.931019E-4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s">
+        <v>13</v>
+      </c>
+      <c r="S57" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>47161.24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" t="s">
+        <v>6</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R58" t="s">
+        <v>13</v>
+      </c>
+      <c r="S58" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="P68" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>10</v>
+      </c>
+      <c r="T68" t="s">
+        <v>11</v>
+      </c>
+      <c r="X68" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>9.1815000000000002E+30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1</v>
+      </c>
+      <c r="R69" t="s">
+        <v>13</v>
+      </c>
+      <c r="S69" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>13528.76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70" t="s">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S70" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>4.931019E-4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="O71" t="s">
+        <v>3</v>
+      </c>
+      <c r="R71" t="s">
+        <v>13</v>
+      </c>
+      <c r="S71" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>13528.76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="O72" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R72" t="s">
+        <v>13</v>
+      </c>
+      <c r="S72" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1.401298E-45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" t="s">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s">
+        <v>13</v>
+      </c>
+      <c r="S73" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>13528.76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" t="s">
+        <v>6</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R74" t="s">
+        <v>13</v>
+      </c>
+      <c r="S74" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" t="s">
+        <v>12</v>
+      </c>
+      <c r="P85" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>10</v>
+      </c>
+      <c r="T85" t="s">
+        <v>11</v>
+      </c>
+      <c r="X85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s">
+        <v>13</v>
+      </c>
+      <c r="S86" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="O87" t="s">
+        <v>2</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R87" t="s">
+        <v>13</v>
+      </c>
+      <c r="S87" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="O88" t="s">
+        <v>3</v>
+      </c>
+      <c r="R88" t="s">
+        <v>13</v>
+      </c>
+      <c r="S88" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="O89" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R89" t="s">
+        <v>13</v>
+      </c>
+      <c r="S89" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="O90" t="s">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s">
+        <v>13</v>
+      </c>
+      <c r="S90" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" t="s">
+        <v>6</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R91" t="s">
+        <v>13</v>
+      </c>
+      <c r="S91" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Documents/Parameter.xlsx
+++ b/Assets/Documents/Parameter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakob\Documents\BuisnessSim\Assets\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakob\Documents\BusinessSim\Assets\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9924094-72D4-43B5-86AF-1BA14A44A6BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F22BC5B-09C9-4DB5-B42A-885E27603E9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{149525E0-C9DF-45B2-9398-21ACCC88C2F6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="66">
   <si>
     <t>Parameter</t>
   </si>
@@ -175,6 +175,60 @@
   </si>
   <si>
     <t>5+6 startet rain</t>
+  </si>
+  <si>
+    <t>4. Durchgang mit Wettermanipulation 100 Jahre</t>
+  </si>
+  <si>
+    <t>5. Durchgang mit Wettermanipulation 100 Jahre</t>
+  </si>
+  <si>
+    <t>6. Durchgang mit Wettermanipulation 100 Jahre</t>
+  </si>
+  <si>
+    <t>nach 20 jahren cloudy</t>
+  </si>
+  <si>
+    <t>nach 20 jahren storm</t>
+  </si>
+  <si>
+    <t>nach 20 jahren rain</t>
+  </si>
+  <si>
+    <t>nach 20 jahren deer</t>
+  </si>
+  <si>
+    <t>nach 20 jahren sun</t>
+  </si>
+  <si>
+    <t>2. Durchgang ohne Wettermanipulation 50 Jahre</t>
+  </si>
+  <si>
+    <t>3. Durchgang mit Wettermanipulation 50 Jahre</t>
+  </si>
+  <si>
+    <t>4. Durchgang mit Wettermanipulation 50 Jahre</t>
+  </si>
+  <si>
+    <t>5. Durchgang mit Wettermanipulation 50 Jahre</t>
+  </si>
+  <si>
+    <t>6. Durchgang mit Wettermanipulation 50 Jahre</t>
+  </si>
+  <si>
+    <t>nach 10 jahren cloudy</t>
+  </si>
+  <si>
+    <t>nach 10 jahren rain</t>
+  </si>
+  <si>
+    <t>nach 10 jahren storm</t>
+  </si>
+  <si>
+    <t>nach 10 jahren deer</t>
+  </si>
+  <si>
+    <t>nach 10 jahren sun</t>
   </si>
 </sst>
 </file>
@@ -305,16 +359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>255309</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176753</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168718</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>32434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>689644</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>94073</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>603053</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -343,8 +397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5616804" y="1482758"/>
-          <a:ext cx="5029902" cy="1409897"/>
+          <a:off x="8423718" y="840616"/>
+          <a:ext cx="4937062" cy="1533684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,16 +459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58917</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607327</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>108014</xdr:rowOff>
+      <xdr:rowOff>79150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>493252</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25334</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291207</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>188990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -443,8 +497,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5420412" y="4399174"/>
-          <a:ext cx="5029902" cy="1409897"/>
+          <a:off x="8111872" y="4726195"/>
+          <a:ext cx="4937062" cy="1533684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,16 +559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>117835</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39277</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550790</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>183595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552170</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>234670</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>143169</xdr:rowOff>
+      <xdr:rowOff>85442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -543,8 +597,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5479330" y="7502164"/>
-          <a:ext cx="5029902" cy="1409897"/>
+          <a:off x="8055335" y="8063368"/>
+          <a:ext cx="4937062" cy="1518210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -605,16 +659,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>216030</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>529551</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>39278</xdr:rowOff>
+      <xdr:rowOff>54207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>650365</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213431</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>143170</xdr:rowOff>
+      <xdr:rowOff>174023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -643,8 +697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5577525" y="10487319"/>
-          <a:ext cx="5029902" cy="1409897"/>
+          <a:off x="8034096" y="11368752"/>
+          <a:ext cx="4937062" cy="1534135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,14 +759,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>58917</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>722781</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>127655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>493252</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>406661</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>44975</xdr:rowOff>
     </xdr:to>
@@ -743,8 +797,1308 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5420412" y="13747423"/>
-          <a:ext cx="5029902" cy="1409897"/>
+          <a:off x="8227326" y="14876973"/>
+          <a:ext cx="4937062" cy="1533684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530258</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>88376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>77562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5EAD89-C66D-408B-BCBF-50AF7396B2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4359897" y="15947010"/>
+          <a:ext cx="3800181" cy="2228052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>434145</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>21423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118025</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>140789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61042AF-559E-4F20-8E5E-261AA90F32EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7938690" y="18205514"/>
+          <a:ext cx="4937062" cy="1533684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>746288</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>663452</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC27E10-A9C7-47F2-94D6-0C250A92F828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14532989" y="795387"/>
+          <a:ext cx="4512731" cy="2553093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>348149</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>32029</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF231D1-D257-4253-BAC6-74BE712A9679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23612240" y="1251552"/>
+          <a:ext cx="4937062" cy="1518210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>108017</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Grafik 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D48BD5B-765E-499F-9883-06AC6077E704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14552630" y="3731444"/>
+          <a:ext cx="4703582" cy="2646566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>333270</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>126465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>17150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Grafik 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F6EFED-1843-4DFF-B098-3ECE30D072DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23597361" y="4369420"/>
+          <a:ext cx="4937062" cy="1518210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>755431</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>54742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>54741</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>31555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Grafik 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A8B9D5-83AE-4A92-9607-3B67BF02ECE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14550259" y="6755087"/>
+          <a:ext cx="4663965" cy="2768623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>276693</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>51756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>708319</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>174732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Grafik 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3783FFED-3412-4DFD-B92A-E048A6E38511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23540784" y="7931529"/>
+          <a:ext cx="4934353" cy="1537294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>225726</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Grafik 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A91E43-6882-46A5-A99B-85B320E25449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14561207" y="9678276"/>
+          <a:ext cx="4824001" cy="2748017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>252805</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>120431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>668507</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>41363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Grafik 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5C41B6-35B9-4C44-98B5-D8131828C81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23516896" y="11232931"/>
+          <a:ext cx="4918429" cy="1537296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>624051</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257513</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>21896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Grafik 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115D6354-3F3D-45A1-8308-64C0C21E6E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14418879" y="12689052"/>
+          <a:ext cx="4998117" cy="2966982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>371245</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>7962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>36492</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>115014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Grafik 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE98FF7-BC65-4A44-9D93-B0CF60568490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23635336" y="14555235"/>
+          <a:ext cx="4918429" cy="1521370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>624052</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>109483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>45997</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>10949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Grafik 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7510067-6955-471E-BA26-F60EC72C1CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15185259" y="15929742"/>
+          <a:ext cx="4786599" cy="2693276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>40807</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>55737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>456509</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>178714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Grafik 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB07A40-2CC0-4D3C-B773-4860928FA3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23304898" y="18037782"/>
+          <a:ext cx="4918429" cy="1537296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>49725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Grafik 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F99D6A-D29D-4B67-B71D-760AF6EBC3E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26670000" y="952500"/>
+          <a:ext cx="4621725" cy="2597727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>405947</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Grafik 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0770FD5B-3C9B-4F26-A6A7-C464784E5748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38971682" y="1593273"/>
+          <a:ext cx="4960629" cy="1502260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>148443</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Grafik 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB24AC2-FBDE-46C2-8180-3D6901C93FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26670001" y="3810000"/>
+          <a:ext cx="4720442" cy="2753591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>150092</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>596448</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Grafik 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22852F5F-7251-44FB-AB90-C61B90B64C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39173728" y="4612408"/>
+          <a:ext cx="4949084" cy="1502261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>478755</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>153276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Grafik 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED779C3-E8A6-4170-904D-D6E2655C3811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26823276" y="6700345"/>
+          <a:ext cx="5077031" cy="2758965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>113464</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>184130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>545089</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>89137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Grafik 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E655C0F2-C239-49FC-88CF-113DC2F95218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39137100" y="7861857"/>
+          <a:ext cx="4934353" cy="1521371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>722587</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>54740</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>128508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Grafik 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF962504-C264-4FD0-8220-902538F08067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26779484" y="9722069"/>
+          <a:ext cx="4696809" cy="2690405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>448546</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Grafik 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73260957-1C34-4D74-AA92-692010AA4B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39056481" y="11132405"/>
+          <a:ext cx="4918429" cy="1537296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>21897</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>65691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>178300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Grafik 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0855ABFE-DB94-4DDB-B63A-3BC7409F2A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26845173" y="12721898"/>
+          <a:ext cx="4754679" cy="2583792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>614097</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>279344</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>48329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Grafik 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12DE5B7-2275-490B-89A3-5080A340FB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38887279" y="14270579"/>
+          <a:ext cx="4918429" cy="1537295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>570266</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Grafik 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23E5C5C-5327-41EA-B25C-FBB85F18F006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27633448" y="15885948"/>
+          <a:ext cx="5124749" cy="2956035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>450870</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>36826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>116117</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>143878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Grafik 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1CCBC7-65EB-4E88-9D0C-639A38CBD0BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39474506" y="18220917"/>
+          <a:ext cx="4918429" cy="1521370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1053,48 +2407,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8093DD18-323A-411F-97DD-5E8AE1A8067D}">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AX98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" zoomScale="33" zoomScaleNormal="33" workbookViewId="0">
+      <selection activeCell="AZ108" sqref="AZ108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AO1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="U2" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AO2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AO3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1107,32 +2461,32 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
+      <c r="V4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="W4" t="s">
         <v>24</v>
       </c>
-      <c r="T4" t="s">
+      <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AP4" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AQ4" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AT4" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AX4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1145,26 +2499,32 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="O5" t="s">
+      <c r="U5" t="s">
         <v>1</v>
       </c>
-      <c r="R5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="W5">
+        <v>0.61672539999999998</v>
+      </c>
+      <c r="X5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="s">
         <v>14</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AO5" t="s">
         <v>1</v>
       </c>
-      <c r="AH5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AQ5">
+        <v>94.495329999999996</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1180,32 +2540,38 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="O6" t="s">
+      <c r="U6" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="V6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>3.6296200000000001</v>
+      </c>
+      <c r="X6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AO6" t="s">
         <v>2</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AP6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ6">
+        <v>9.4976649999999996</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1218,26 +2584,32 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" t="s">
+      <c r="U7" t="s">
         <v>3</v>
       </c>
-      <c r="R7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="W7">
+        <v>0.17356559999999999</v>
+      </c>
+      <c r="X7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="s">
         <v>15</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AO7" t="s">
         <v>3</v>
       </c>
-      <c r="AH7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AQ7">
+        <v>0.50763000000000003</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1253,32 +2625,38 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="O8" t="s">
+      <c r="U8" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="V8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>3.6296200000000001</v>
+      </c>
+      <c r="X8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="s">
         <v>15</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AO8" t="s">
         <v>4</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AP8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ8">
+        <v>9.4976649999999996</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1291,26 +2669,32 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="O9" t="s">
+      <c r="U9" t="s">
         <v>5</v>
       </c>
-      <c r="R9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="W9">
+        <v>0.41772939999999997</v>
+      </c>
+      <c r="X9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="s">
         <v>16</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AO9" t="s">
         <v>5</v>
       </c>
-      <c r="AH9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AQ9">
+        <v>0.58127879999999998</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1326,54 +2710,60 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="O10" t="s">
+      <c r="U10" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="V10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>3.6296200000000001</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
         <v>16</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AO10" t="s">
         <v>6</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AP10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ10">
+        <v>9.4976649999999996</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="O18" t="s">
+      <c r="U18" t="s">
         <v>30</v>
       </c>
-      <c r="AE18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="O19" t="s">
+      <c r="U19" t="s">
         <v>18</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AO19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1386,32 +2776,32 @@
       <c r="J20" t="s">
         <v>12</v>
       </c>
-      <c r="P20" t="s">
+      <c r="V20" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="W20" t="s">
         <v>24</v>
       </c>
-      <c r="T20" t="s">
+      <c r="Z20" t="s">
         <v>11</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AD20" t="s">
         <v>12</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AP20" t="s">
         <v>8</v>
       </c>
-      <c r="AG20" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AQ20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT20" t="s">
         <v>11</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AX20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1424,26 +2814,32 @@
       <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="O21" t="s">
+      <c r="U21" t="s">
         <v>1</v>
       </c>
-      <c r="R21" t="s">
-        <v>13</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="W21">
+        <v>37.660670000000003</v>
+      </c>
+      <c r="X21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="s">
         <v>14</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AO21" t="s">
         <v>1</v>
       </c>
-      <c r="AH21" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AQ21">
+        <v>1.2202390000000001</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1459,32 +2855,38 @@
       <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="O22" t="s">
+      <c r="U22" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" t="s">
-        <v>13</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="V22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22">
+        <v>477.23289999999997</v>
+      </c>
+      <c r="X22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="s">
         <v>14</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AO22" t="s">
         <v>2</v>
       </c>
-      <c r="AF22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="AP22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ22">
+        <v>5.9918380000000004</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1497,26 +2899,32 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="O23" t="s">
+      <c r="U23" t="s">
         <v>3</v>
       </c>
-      <c r="R23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="W23">
+        <v>5.1146539999999998</v>
+      </c>
+      <c r="X23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y23" t="s">
         <v>15</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AO23" t="s">
         <v>3</v>
       </c>
-      <c r="AH23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AQ23">
+        <v>2.0847980000000002</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1532,32 +2940,38 @@
       <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="O24" t="s">
+      <c r="U24" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R24" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="V24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24">
+        <v>477.23289999999997</v>
+      </c>
+      <c r="X24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="s">
         <v>15</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AO24" t="s">
         <v>4</v>
       </c>
-      <c r="AF24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI24" t="s">
+      <c r="AP24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ24">
+        <v>5.9918380000000004</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1570,26 +2984,32 @@
       <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="O25" t="s">
+      <c r="U25" t="s">
         <v>5</v>
       </c>
-      <c r="R25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="W25">
+        <v>967.06500000000005</v>
+      </c>
+      <c r="X25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y25" t="s">
         <v>16</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AO25" t="s">
         <v>5</v>
       </c>
-      <c r="AH25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI25" t="s">
+      <c r="AQ25">
+        <v>3.0818669999999999</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1605,43 +3025,49 @@
       <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="O26" t="s">
+      <c r="U26" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R26" t="s">
-        <v>13</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="V26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26">
+        <v>477.23289999999997</v>
+      </c>
+      <c r="X26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="s">
         <v>16</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AO26" t="s">
         <v>6</v>
       </c>
-      <c r="AF26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI26" t="s">
+      <c r="AP26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ26">
+        <v>5.9918380000000004</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="O34" t="s">
+      <c r="U34" t="s">
         <v>31</v>
       </c>
-      <c r="AE34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1651,8 +3077,26 @@
       <c r="C35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" t="s">
+        <v>28</v>
+      </c>
+      <c r="W35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -1665,32 +3109,32 @@
       <c r="J36" t="s">
         <v>12</v>
       </c>
-      <c r="P36" t="s">
+      <c r="V36" t="s">
         <v>8</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="W36" t="s">
         <v>24</v>
       </c>
-      <c r="T36" t="s">
+      <c r="Z36" t="s">
         <v>11</v>
       </c>
-      <c r="X36" t="s">
+      <c r="AD36" t="s">
         <v>12</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AP36" t="s">
         <v>8</v>
       </c>
-      <c r="AG36" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ36" t="s">
+      <c r="AQ36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT36" t="s">
         <v>11</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AX36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1703,26 +3147,32 @@
       <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="O37" t="s">
+      <c r="U37" t="s">
         <v>1</v>
       </c>
-      <c r="R37" t="s">
-        <v>13</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="W37" s="2">
+        <v>2427535000000</v>
+      </c>
+      <c r="X37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="s">
         <v>14</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AO37" t="s">
         <v>1</v>
       </c>
-      <c r="AH37" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI37" t="s">
+      <c r="AQ37">
+        <v>1558055</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1738,32 +3188,38 @@
       <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="O38" t="s">
+      <c r="U38" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" t="s">
-        <v>13</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="V38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <v>47.874499999999998</v>
+      </c>
+      <c r="X38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y38" t="s">
         <v>14</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AO38" t="s">
         <v>2</v>
       </c>
-      <c r="AF38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI38" t="s">
+      <c r="AP38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ38">
+        <v>1.3332539999999999</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1776,26 +3232,32 @@
       <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="O39" t="s">
+      <c r="U39" t="s">
         <v>3</v>
       </c>
-      <c r="R39" t="s">
-        <v>13</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="W39">
+        <v>1174311</v>
+      </c>
+      <c r="X39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y39" t="s">
         <v>15</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AO39" t="s">
         <v>3</v>
       </c>
-      <c r="AH39" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI39" t="s">
+      <c r="AQ39">
+        <v>1083.6559999999999</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1811,32 +3273,38 @@
       <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="O40" t="s">
+      <c r="U40" t="s">
         <v>4</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R40" t="s">
-        <v>13</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="V40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W40">
+        <v>47.874499999999998</v>
+      </c>
+      <c r="X40" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="s">
         <v>15</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AO40" t="s">
         <v>4</v>
       </c>
-      <c r="AF40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI40" t="s">
+      <c r="AP40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ40">
+        <v>1.3332539999999999</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1849,26 +3317,32 @@
       <c r="E41" t="s">
         <v>16</v>
       </c>
-      <c r="O41" t="s">
+      <c r="U41" t="s">
         <v>5</v>
       </c>
-      <c r="R41" t="s">
-        <v>13</v>
-      </c>
-      <c r="S41" t="s">
+      <c r="W41">
+        <v>4.755264E-2</v>
+      </c>
+      <c r="X41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="s">
         <v>16</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AO41" t="s">
         <v>5</v>
       </c>
-      <c r="AH41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI41" t="s">
+      <c r="AQ41">
+        <v>0.2180657</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1884,53 +3358,59 @@
       <c r="E42" t="s">
         <v>16</v>
       </c>
-      <c r="O42" t="s">
+      <c r="U42" t="s">
         <v>6</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R42" t="s">
-        <v>13</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="V42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42">
+        <v>47.874499999999998</v>
+      </c>
+      <c r="X42" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y42" t="s">
         <v>16</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AO42" t="s">
         <v>6</v>
       </c>
-      <c r="AF42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI42" t="s">
+      <c r="AP42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ42">
+        <v>1.3332539999999999</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="O50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -1940,8 +3420,26 @@
       <c r="C51" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>34</v>
+      </c>
+      <c r="V51" t="s">
+        <v>35</v>
+      </c>
+      <c r="W51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>8</v>
       </c>
@@ -1954,32 +3452,32 @@
       <c r="J52" t="s">
         <v>12</v>
       </c>
-      <c r="P52" t="s">
+      <c r="V52" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" t="s">
-        <v>10</v>
-      </c>
-      <c r="T52" t="s">
+      <c r="W52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z52" t="s">
         <v>11</v>
       </c>
-      <c r="X52" t="s">
+      <c r="AD52" t="s">
         <v>12</v>
       </c>
-      <c r="AF52" t="s">
+      <c r="AP52" t="s">
         <v>8</v>
       </c>
-      <c r="AG52" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ52" t="s">
+      <c r="AQ52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT52" t="s">
         <v>11</v>
       </c>
-      <c r="AN52" t="s">
+      <c r="AX52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -1992,26 +3490,32 @@
       <c r="E53" t="s">
         <v>14</v>
       </c>
-      <c r="O53" t="s">
+      <c r="U53" t="s">
         <v>1</v>
       </c>
-      <c r="R53" t="s">
-        <v>13</v>
-      </c>
-      <c r="S53" t="s">
+      <c r="W53" s="2">
+        <v>6.5332130000000002E-23</v>
+      </c>
+      <c r="X53" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y53" t="s">
         <v>14</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AO53" t="s">
         <v>1</v>
       </c>
-      <c r="AH53" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI53" t="s">
+      <c r="AQ53" s="2">
+        <v>8.0828299999999998E-12</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -2027,32 +3531,38 @@
       <c r="E54" t="s">
         <v>14</v>
       </c>
-      <c r="O54" t="s">
+      <c r="U54" t="s">
         <v>2</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R54" t="s">
-        <v>13</v>
-      </c>
-      <c r="S54" t="s">
+      <c r="V54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W54">
+        <v>100.0568</v>
+      </c>
+      <c r="X54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y54" t="s">
         <v>14</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AO54" t="s">
         <v>2</v>
       </c>
-      <c r="AF54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI54" t="s">
+      <c r="AP54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ54">
+        <v>3.1959770000000001</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2065,26 +3575,32 @@
       <c r="E55" t="s">
         <v>15</v>
       </c>
-      <c r="O55" t="s">
+      <c r="U55" t="s">
         <v>3</v>
       </c>
-      <c r="R55" t="s">
-        <v>13</v>
-      </c>
-      <c r="S55" t="s">
+      <c r="W55" s="2">
+        <v>5.790424E-11</v>
+      </c>
+      <c r="X55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y55" t="s">
         <v>15</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AO55" t="s">
         <v>3</v>
       </c>
-      <c r="AH55" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI55" t="s">
+      <c r="AQ55" s="2">
+        <v>7.6094829999999999E-6</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2100,32 +3616,38 @@
       <c r="E56" t="s">
         <v>15</v>
       </c>
-      <c r="O56" t="s">
+      <c r="U56" t="s">
         <v>4</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R56" t="s">
-        <v>13</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="V56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W56">
+        <v>100.0568</v>
+      </c>
+      <c r="X56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y56" t="s">
         <v>15</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AO56" t="s">
         <v>4</v>
       </c>
-      <c r="AF56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI56" t="s">
+      <c r="AP56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ56">
+        <v>3.1959770000000001</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2138,26 +3660,32 @@
       <c r="E57" t="s">
         <v>16</v>
       </c>
-      <c r="O57" t="s">
+      <c r="U57" t="s">
         <v>5</v>
       </c>
-      <c r="R57" t="s">
-        <v>13</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="W57">
+        <v>4.755264E-2</v>
+      </c>
+      <c r="X57" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y57" t="s">
         <v>16</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AO57" t="s">
         <v>5</v>
       </c>
-      <c r="AH57" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI57" t="s">
+      <c r="AQ57">
+        <v>0.2180657</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2173,43 +3701,49 @@
       <c r="E58" t="s">
         <v>16</v>
       </c>
-      <c r="O58" t="s">
+      <c r="U58" t="s">
         <v>6</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R58" t="s">
-        <v>13</v>
-      </c>
-      <c r="S58" t="s">
+      <c r="V58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W58">
+        <v>100.0568</v>
+      </c>
+      <c r="X58" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y58" t="s">
         <v>16</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AO58" t="s">
         <v>6</v>
       </c>
-      <c r="AF58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI58" t="s">
+      <c r="AP58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ58">
+        <v>3.1959770000000001</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
-      <c r="O66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U66" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -2219,8 +3753,26 @@
       <c r="C67" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U67" t="s">
+        <v>37</v>
+      </c>
+      <c r="V67" t="s">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>8</v>
       </c>
@@ -2233,32 +3785,32 @@
       <c r="J68" t="s">
         <v>12</v>
       </c>
-      <c r="P68" t="s">
+      <c r="V68" t="s">
         <v>8</v>
       </c>
-      <c r="Q68" t="s">
-        <v>10</v>
-      </c>
-      <c r="T68" t="s">
+      <c r="W68" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z68" t="s">
         <v>11</v>
       </c>
-      <c r="X68" t="s">
+      <c r="AD68" t="s">
         <v>12</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AP68" t="s">
         <v>8</v>
       </c>
-      <c r="AG68" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ68" t="s">
+      <c r="AQ68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT68" t="s">
         <v>11</v>
       </c>
-      <c r="AN68" t="s">
+      <c r="AX68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2271,26 +3823,32 @@
       <c r="E69" t="s">
         <v>14</v>
       </c>
-      <c r="O69" t="s">
+      <c r="U69" t="s">
         <v>1</v>
       </c>
-      <c r="R69" t="s">
-        <v>13</v>
-      </c>
-      <c r="S69" t="s">
+      <c r="W69" s="2">
+        <v>2427535000000</v>
+      </c>
+      <c r="X69" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y69" t="s">
         <v>14</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AO69" t="s">
         <v>1</v>
       </c>
-      <c r="AH69" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI69" t="s">
+      <c r="AQ69">
+        <v>1558055</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2306,32 +3864,38 @@
       <c r="E70" t="s">
         <v>14</v>
       </c>
-      <c r="O70" t="s">
+      <c r="U70" t="s">
         <v>2</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R70" t="s">
-        <v>13</v>
-      </c>
-      <c r="S70" t="s">
+      <c r="V70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W70">
+        <v>2.3725269999999998</v>
+      </c>
+      <c r="X70" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y70" t="s">
         <v>14</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AO70" t="s">
         <v>2</v>
       </c>
-      <c r="AF70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI70" t="s">
+      <c r="AP70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ70">
+        <v>5.2503799999999998</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2344,26 +3908,32 @@
       <c r="E71" t="s">
         <v>15</v>
       </c>
-      <c r="O71" t="s">
+      <c r="U71" t="s">
         <v>3</v>
       </c>
-      <c r="R71" t="s">
-        <v>13</v>
-      </c>
-      <c r="S71" t="s">
+      <c r="W71">
+        <v>4.755264E-2</v>
+      </c>
+      <c r="X71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y71" t="s">
         <v>15</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AO71" t="s">
         <v>3</v>
       </c>
-      <c r="AH71" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI71" t="s">
+      <c r="AQ71">
+        <v>0.2180657</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS71" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2379,32 +3949,38 @@
       <c r="E72" t="s">
         <v>15</v>
       </c>
-      <c r="O72" t="s">
+      <c r="U72" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R72" t="s">
-        <v>13</v>
-      </c>
-      <c r="S72" t="s">
+      <c r="V72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W72">
+        <v>2.3725269999999998</v>
+      </c>
+      <c r="X72" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y72" t="s">
         <v>15</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AO72" t="s">
         <v>4</v>
       </c>
-      <c r="AF72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI72" t="s">
+      <c r="AP72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ72">
+        <v>5.2503799999999998</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2417,26 +3993,32 @@
       <c r="E73" t="s">
         <v>16</v>
       </c>
-      <c r="O73" t="s">
+      <c r="U73" t="s">
         <v>5</v>
       </c>
-      <c r="R73" t="s">
-        <v>13</v>
-      </c>
-      <c r="S73" t="s">
+      <c r="W73" s="2">
+        <v>6.5332130000000002E-23</v>
+      </c>
+      <c r="X73" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y73" t="s">
         <v>16</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AO73" t="s">
         <v>5</v>
       </c>
-      <c r="AH73" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI73" t="s">
+      <c r="AQ73" s="2">
+        <v>8.0828299999999998E-12</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -2452,43 +4034,49 @@
       <c r="E74" t="s">
         <v>16</v>
       </c>
-      <c r="O74" t="s">
+      <c r="U74" t="s">
         <v>6</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R74" t="s">
-        <v>13</v>
-      </c>
-      <c r="S74" t="s">
+      <c r="V74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W74">
+        <v>2.3725269999999998</v>
+      </c>
+      <c r="X74" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y74" t="s">
         <v>16</v>
       </c>
-      <c r="AE74" t="s">
+      <c r="AO74" t="s">
         <v>6</v>
       </c>
-      <c r="AF74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI74" t="s">
+      <c r="AP74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ74">
+        <v>5.2503799999999998</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS74" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>22</v>
       </c>
-      <c r="O83" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U83" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>8</v>
       </c>
@@ -2501,233 +4089,287 @@
       <c r="J85" t="s">
         <v>12</v>
       </c>
-      <c r="P85" t="s">
+      <c r="V85" t="s">
         <v>8</v>
       </c>
-      <c r="Q85" t="s">
-        <v>10</v>
-      </c>
-      <c r="T85" t="s">
+      <c r="W85" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z85" t="s">
         <v>11</v>
       </c>
-      <c r="X85" t="s">
+      <c r="AD85" t="s">
         <v>12</v>
       </c>
-      <c r="AF85" t="s">
+      <c r="AP85" t="s">
         <v>8</v>
       </c>
-      <c r="AG85" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ85" t="s">
+      <c r="AQ85" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT85" t="s">
         <v>11</v>
       </c>
-      <c r="AN85" t="s">
+      <c r="AX85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
+      <c r="C86" s="2">
+        <v>2.264541E-8</v>
+      </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
-      <c r="O86" t="s">
+      <c r="U86" t="s">
         <v>1</v>
       </c>
-      <c r="R86" t="s">
-        <v>13</v>
-      </c>
-      <c r="S86" t="s">
+      <c r="W86">
+        <v>8.7496790000000002E-4</v>
+      </c>
+      <c r="X86" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y86" t="s">
         <v>14</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AO86" t="s">
         <v>1</v>
       </c>
-      <c r="AH86" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI86" t="s">
+      <c r="AQ86">
+        <v>2.9579850000000001E-2</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS86" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C87">
+        <v>103059.2</v>
+      </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
-      <c r="O87" t="s">
+      <c r="U87" t="s">
         <v>2</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R87" t="s">
-        <v>13</v>
-      </c>
-      <c r="S87" t="s">
+      <c r="V87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W87">
+        <v>2.6217980000000001</v>
+      </c>
+      <c r="X87" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y87" t="s">
         <v>14</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AO87" t="s">
         <v>2</v>
       </c>
-      <c r="AF87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH87" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI87" t="s">
+      <c r="AP87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ87">
+        <v>21.35446</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS87" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
+      <c r="C88" s="2">
+        <v>2.264541E-8</v>
+      </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
       </c>
-      <c r="O88" t="s">
+      <c r="U88" t="s">
         <v>3</v>
       </c>
-      <c r="R88" t="s">
-        <v>13</v>
-      </c>
-      <c r="S88" t="s">
+      <c r="W88">
+        <v>8.7496749999999999E-4</v>
+      </c>
+      <c r="X88" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y88" t="s">
         <v>15</v>
       </c>
-      <c r="AE88" t="s">
+      <c r="AO88" t="s">
         <v>3</v>
       </c>
-      <c r="AH88" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI88" t="s">
+      <c r="AQ88">
+        <v>2.9579850000000001E-2</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C89">
+        <v>103059.2</v>
+      </c>
       <c r="D89" t="s">
         <v>13</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
       </c>
-      <c r="O89" t="s">
+      <c r="U89" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R89" t="s">
-        <v>13</v>
-      </c>
-      <c r="S89" t="s">
+      <c r="V89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W89">
+        <v>2.6217980000000001</v>
+      </c>
+      <c r="X89" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y89" t="s">
         <v>15</v>
       </c>
-      <c r="AE89" t="s">
+      <c r="AO89" t="s">
         <v>4</v>
       </c>
-      <c r="AF89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH89" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI89" t="s">
+      <c r="AP89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ89">
+        <v>21.35446</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS89" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
+      <c r="C90" s="2">
+        <v>2.26454E-8</v>
+      </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
       </c>
-      <c r="O90" t="s">
+      <c r="U90" t="s">
         <v>5</v>
       </c>
-      <c r="R90" t="s">
-        <v>13</v>
-      </c>
-      <c r="S90" t="s">
+      <c r="W90">
+        <v>8.7496749999999999E-4</v>
+      </c>
+      <c r="X90" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y90" t="s">
         <v>16</v>
       </c>
-      <c r="AE90" t="s">
+      <c r="AO90" t="s">
         <v>5</v>
       </c>
-      <c r="AH90" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI90" t="s">
+      <c r="AQ90">
+        <v>2.9579850000000001E-2</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS90" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C91">
+        <v>103059.2</v>
+      </c>
       <c r="D91" t="s">
         <v>13</v>
       </c>
       <c r="E91" t="s">
         <v>16</v>
       </c>
-      <c r="O91" t="s">
+      <c r="U91" t="s">
         <v>6</v>
       </c>
-      <c r="P91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R91" t="s">
-        <v>13</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="V91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W91">
+        <v>2.6217980000000001</v>
+      </c>
+      <c r="X91" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y91" t="s">
         <v>16</v>
       </c>
-      <c r="AE91" t="s">
+      <c r="AO91" t="s">
         <v>6</v>
       </c>
-      <c r="AF91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH91" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI91" t="s">
+      <c r="AP91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ91">
+        <v>21.35446</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS91" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -2738,7 +4380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -2748,8 +4390,26 @@
       <c r="E94" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U94" t="s">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +4419,26 @@
       <c r="E95" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="U95" t="s">
+        <v>51</v>
+      </c>
+      <c r="W95" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -2770,8 +4448,26 @@
       <c r="E96" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="U96" t="s">
+        <v>53</v>
+      </c>
+      <c r="W96" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -2780,6 +4476,44 @@
       </c>
       <c r="E97" t="s">
         <v>45</v>
+      </c>
+      <c r="U97" t="s">
+        <v>52</v>
+      </c>
+      <c r="W97" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="U98" t="s">
+        <v>54</v>
+      </c>
+      <c r="W98" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS98" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
